--- a/02. Data2HR/dataD_D_1T_P.xlsx
+++ b/02. Data2HR/dataD_D_1T_P.xlsx
@@ -25179,7 +25179,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>h</t>
+          <t>H</t>
         </is>
       </c>
       <c r="K450" s="2" t="n">
@@ -25190,7 +25190,7 @@
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>4000h</t>
+          <t>4000H</t>
         </is>
       </c>
     </row>
